--- a/OnBoard/output/trust/catch/Catch_Trust_53.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_53.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1421,19 +1421,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Scyliorhinus canicula</t>
+          <t>Serranus hepatus</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SCYOCAN</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.45</v>
+        <v>0.027</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1462,16 +1462,16 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Serranus hepatus</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G27">
-        <v>0.027</v>
+        <v>0.499</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -1503,19 +1503,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Spicara maena</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SPICMAE</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.499</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1544,19 +1544,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Spicara maena</t>
+          <t>Trigloporus lastoviza</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SPICMAE</t>
+          <t>TRIPLAS</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.008999999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Trigloporus lastoviza</t>
+          <t>Ampharetidae nd.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TRIPLAS</t>
+          <t>AMPHASP</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.18</v>
+        <v>0.001</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="31">
@@ -1626,22 +1626,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ampharetidae nd.</t>
+          <t>Anomia ephippium</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>AMPHASP</t>
+          <t>ANOMEPH</t>
         </is>
       </c>
       <c r="G31">
         <v>0.001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="32">
@@ -1667,22 +1667,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Anomia ephippium</t>
+          <t>Anseropoda placenta</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ANOMEPH</t>
+          <t>ANSEPLA</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.001</v>
+        <v>0.058</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I32">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="33">
@@ -1708,22 +1708,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Anseropoda placenta</t>
+          <t>Aphrodita aculeata</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ANSEPLA</t>
+          <t>APHRACU</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.058</v>
+        <v>0.002</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="34">
@@ -1749,22 +1749,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Aphrodita aculeata</t>
+          <t>Aphroditidae n.d.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>APHRACU</t>
+          <t>APHRND1</t>
         </is>
       </c>
       <c r="G34">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="35">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Aphroditidae n.d.</t>
+          <t>Aspidosiphon muelleri muelleri</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>APHRND1</t>
+          <t>ASPIMUE</t>
         </is>
       </c>
       <c r="G35">
         <v>0.001</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="36">
@@ -1831,22 +1831,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Aspidosiphon muelleri muelleri</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ASPIMUE</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.001</v>
+        <v>1.155</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I36">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="37">
@@ -1872,22 +1872,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Bryozoa nd</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>BRYOZND</t>
         </is>
       </c>
       <c r="G37">
-        <v>1.155</v>
+        <v>0.002</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="38">
@@ -1913,22 +1913,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Bryozoa nd</t>
+          <t>Coralligenous concretions</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>BRYOZND</t>
+          <t>CORACON</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.002</v>
+        <v>2.48</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I38">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="39">
@@ -1954,22 +1954,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Coralligenous concretions</t>
+          <t>Dardanus arrosor</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CORACON</t>
+          <t>DARDARR</t>
         </is>
       </c>
       <c r="G39">
-        <v>2.48</v>
+        <v>0.005</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="40">
@@ -1995,22 +1995,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Dardanus arrosor</t>
+          <t>Dromia personata</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DARDARR</t>
+          <t>DROMPER</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="41">
@@ -2036,22 +2036,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Dromia personata</t>
+          <t>Echinaster sepositus</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DROMPER</t>
+          <t>ECHISEP</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.003</v>
+        <v>0.011</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="42">
@@ -2077,22 +2077,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Echinaster sepositus</t>
+          <t>Eggs of Tonna</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ECHISEP</t>
+          <t>EGGSTON</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I42">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="43">
@@ -2118,22 +2118,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Eggs of Tonna</t>
+          <t>Eunicidae nd</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EGGSTON</t>
+          <t>EUNIND</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I43">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="44">
@@ -2159,22 +2159,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Eunicidae nd</t>
+          <t>Galathea dispersa</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EUNIND</t>
+          <t>GALADIS</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="H44">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="45">
@@ -2200,22 +2200,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Galathea dispersa</t>
+          <t>Holothuria forskali</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>GALADIS</t>
+          <t>HOLOFOR</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.001</v>
+        <v>0.54</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I45">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="46">
@@ -2241,22 +2241,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Holothuria forskali</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>HOLOFOR</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.54</v>
+        <v>0.001</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="47">
@@ -2282,12 +2282,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Nereididae nd</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>NEREIDI</t>
         </is>
       </c>
       <c r="G47">
@@ -2297,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="48">
@@ -2323,22 +2323,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Nereididae nd</t>
+          <t>Ocnus planci (=Cucumaria planci)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NEREIDI</t>
+          <t>OCNUPLA</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.001</v>
+        <v>0.171</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I48">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="49">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ocnus planci (=Cucumaria planci)</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>OCNUPLA</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.171</v>
+        <v>0.021</v>
       </c>
       <c r="H49">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I49">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="50">
@@ -2405,22 +2405,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Pagurus excavatus</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>PAGUEXC</t>
         </is>
       </c>
       <c r="G50">
-        <v>0.021</v>
+        <v>0.002</v>
       </c>
       <c r="H50">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="51">
@@ -2446,12 +2446,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Pagurus excavatus</t>
+          <t>Pilumnus spinifer</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PAGUEXC</t>
+          <t>PILUSPI</t>
         </is>
       </c>
       <c r="G51">
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="I51">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="52">
@@ -2487,22 +2487,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Pilumnus spinifer</t>
+          <t>Porifera nd</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>PILUSPI</t>
+          <t>PORIFND</t>
         </is>
       </c>
       <c r="G52">
-        <v>0.002</v>
+        <v>0.154</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I52">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="53">
@@ -2528,22 +2528,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Porifera nd</t>
+          <t>Psammechinus microtuberculatus</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>PORIFND</t>
+          <t>PSAMMIC</t>
         </is>
       </c>
       <c r="G53">
-        <v>0.154</v>
+        <v>0.048</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I53">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="54">
@@ -2569,22 +2569,22 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Psammechinus microtuberculatus</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>PSAMMIC</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G54">
-        <v>0.048</v>
+        <v>1.434</v>
       </c>
       <c r="H54">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="I54">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="55">
@@ -2610,22 +2610,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Sphaerechinus granularis</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>SPHAGRA</t>
         </is>
       </c>
       <c r="G55">
-        <v>1.434</v>
+        <v>0.126</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="56">
@@ -2651,22 +2651,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sphaerechinus granularis</t>
+          <t>Stones NA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SPHAGRA</t>
+          <t>STONES</t>
         </is>
       </c>
       <c r="G56">
-        <v>0.126</v>
+        <v>0.068</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I56">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="57">
@@ -2692,22 +2692,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Stones NA</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>STONES</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G57">
-        <v>0.068</v>
+        <v>0.004</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I57">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="58">
@@ -2733,22 +2733,22 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Wood NA</t>
+          <t>Xanto pilipes</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>WOOD</t>
+          <t>XANTPHI</t>
         </is>
       </c>
       <c r="G58">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
     <row r="59">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Xanto pilipes</t>
+          <t>glycera sp</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>XANTPHI</t>
+          <t>GLYCESP</t>
         </is>
       </c>
       <c r="G59">
@@ -2789,48 +2789,7 @@
         <v>1</v>
       </c>
       <c r="I59">
-        <v>61.35244444444444</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>glycera sp</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>GLYCESP</t>
-        </is>
-      </c>
-      <c r="G60">
-        <v>0.001</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>61.35244444444444</v>
+        <v>61.40244444444446</v>
       </c>
     </row>
   </sheetData>
